--- a/APP_PERSONAS/src/test/resources/datadriven/consultas/detalleproductos/ConsultaDetalleProductosDepositos.xlsx
+++ b/APP_PERSONAS/src/test/resources/datadriven/consultas/detalleproductos/ConsultaDetalleProductosDepositos.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
   <si>
     <t>ID</t>
   </si>
@@ -67,12 +67,6 @@
     <t>1</t>
   </si>
   <si>
-    <t>1037655531</t>
-  </si>
-  <si>
-    <t>userrobot3</t>
-  </si>
-  <si>
     <t>1234</t>
   </si>
   <si>
@@ -85,9 +79,6 @@
     <t>000</t>
   </si>
   <si>
-    <t>0369</t>
-  </si>
-  <si>
     <t>NO ERROR</t>
   </si>
   <si>
@@ -100,9 +91,6 @@
     <t>Corriente</t>
   </si>
   <si>
-    <t>406-101390-08</t>
-  </si>
-  <si>
     <t>Orientacion</t>
   </si>
   <si>
@@ -149,13 +137,22 @@
   </si>
   <si>
     <t>Consultas</t>
+  </si>
+  <si>
+    <t>automata87</t>
+  </si>
+  <si>
+    <t>0360</t>
+  </si>
+  <si>
+    <t>406-149870-06</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -183,6 +180,13 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -250,10 +254,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -532,17 +536,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="11.125" customWidth="1"/>
     <col min="2" max="6" width="14.375" customWidth="1"/>
-    <col min="9" max="9" width="18.375" customWidth="1"/>
-    <col min="10" max="10" width="22.125" customWidth="1"/>
-    <col min="11" max="11" width="14.375" customWidth="1"/>
+    <col min="8" max="11" width="14.375" customWidth="1"/>
     <col min="12" max="12" width="14.625" customWidth="1"/>
     <col min="13" max="13" width="10.375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.625" bestFit="1" customWidth="1"/>
@@ -593,47 +595,47 @@
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="9">
+        <v>43024987</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="F2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="G2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="H2" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="I2" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="K2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="L2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="N2" s="11" t="s">
-        <v>26</v>
+      <c r="N2" s="9" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -645,7 +647,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
-      <c r="I3" s="10"/>
+      <c r="I3" s="6"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
@@ -658,15 +660,15 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
@@ -674,7 +676,7 @@
           <x14:formula1>
             <xm:f>Listas!$A$2:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>G2:J4</xm:sqref>
+          <xm:sqref>G2:G4</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -700,67 +702,67 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="B4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="B5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="B6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="B7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/APP_PERSONAS/src/test/resources/datadriven/consultas/detalleproductos/ConsultaDetalleProductosDepositos.xlsx
+++ b/APP_PERSONAS/src/test/resources/datadriven/consultas/detalleproductos/ConsultaDetalleProductosDepositos.xlsx
@@ -145,7 +145,7 @@
     <t>0360</t>
   </si>
   <si>
-    <t>406-149870-06</t>
+    <t>406-149870-04</t>
   </si>
 </sst>
 </file>
@@ -537,7 +537,7 @@
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>

--- a/APP_PERSONAS/src/test/resources/datadriven/consultas/detalleproductos/ConsultaDetalleProductosDepositos.xlsx
+++ b/APP_PERSONAS/src/test/resources/datadriven/consultas/detalleproductos/ConsultaDetalleProductosDepositos.xlsx
@@ -139,13 +139,13 @@
     <t>Consultas</t>
   </si>
   <si>
-    <t>automata87</t>
-  </si>
-  <si>
     <t>0360</t>
   </si>
   <si>
-    <t>406-149870-04</t>
+    <t>invictus10</t>
+  </si>
+  <si>
+    <t>406-125210-01</t>
   </si>
 </sst>
 </file>
@@ -537,7 +537,7 @@
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -599,13 +599,13 @@
         <v>14</v>
       </c>
       <c r="B2" s="9">
-        <v>43024987</v>
+        <v>22452521</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>14</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>15</v>
@@ -620,7 +620,7 @@
         <v>18</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>19</v>

--- a/APP_PERSONAS/src/test/resources/datadriven/consultas/detalleproductos/ConsultaDetalleProductosDepositos.xlsx
+++ b/APP_PERSONAS/src/test/resources/datadriven/consultas/detalleproductos/ConsultaDetalleProductosDepositos.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AUTOMATIZACION JAVA\PROYECTOS GRADLE\PROYECTOS NUEVA APP\AW1059001_APPSucursalVirtualPersonas_Test\APP_PERSONAS\src\test\resources\datadriven\consultas\detalleproductos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProyectosBCO\bancolombia-app-personas-osp-tests-bdd-screen-play\APP_PERSONAS\src\test\resources\datadriven\consultas\detalleproductos\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A1C5E16-8BF6-4BAC-9853-E34CB83C37B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19890" windowHeight="7425"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Depositos" sheetId="1" r:id="rId1"/>
@@ -142,16 +143,16 @@
     <t>0360</t>
   </si>
   <si>
-    <t>invictus10</t>
-  </si>
-  <si>
-    <t>406-125210-01</t>
+    <t>pruebauser01</t>
+  </si>
+  <si>
+    <t>406-182800-02</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5">
     <font>
       <sz val="12"/>
@@ -261,7 +262,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -533,21 +534,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.3"/>
   <cols>
-    <col min="1" max="1" width="11.125" customWidth="1"/>
-    <col min="2" max="6" width="14.375" customWidth="1"/>
-    <col min="8" max="11" width="14.375" customWidth="1"/>
-    <col min="12" max="12" width="14.625" customWidth="1"/>
-    <col min="13" max="13" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" customWidth="1"/>
+    <col min="2" max="6" width="14.33203125" customWidth="1"/>
+    <col min="8" max="11" width="14.33203125" customWidth="1"/>
+    <col min="12" max="12" width="14.6640625" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -672,7 +673,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>Listas!$A$2:$A$3</xm:f>
           </x14:formula1>
@@ -685,19 +686,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.3"/>
   <cols>
-    <col min="1" max="1" width="10.625" customWidth="1"/>
-    <col min="2" max="2" width="14.875" customWidth="1"/>
-    <col min="3" max="3" width="12.125" customWidth="1"/>
-    <col min="4" max="4" width="17.875" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
